--- a/biology/Zoologie/Hualianceratops/Hualianceratops.xlsx
+++ b/biology/Zoologie/Hualianceratops/Hualianceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hualianceratops wucaiwanensis
-Hualianceratops est un genre de dinosaures herbivores du groupe des cératopsiens du Jurassique supérieur (Oxfordien, 160 millions d'années). Ce genre est représenté par une espèce unique, Hualianceratops wucaiwanensis, dont l'holotype a été découvert dans l'ouest de la Chine. Il est classé dans la famille des Chaoyangsauridae, qui comprend également les genres Chaoyangsaurus et Xuanhuaceratops[2].
+Hualianceratops est un genre de dinosaures herbivores du groupe des cératopsiens du Jurassique supérieur (Oxfordien, 160 millions d'années). Ce genre est représenté par une espèce unique, Hualianceratops wucaiwanensis, dont l'holotype a été découvert dans l'ouest de la Chine. Il est classé dans la famille des Chaoyangsauridae, qui comprend également les genres Chaoyangsaurus et Xuanhuaceratops.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Hualianceratops associe Hualian qui signifie « face ornementée », et ce en référence à la texture que présente le crâne, à ceratops, le suffixe commun aux dinosaures à cornes[2].
-Son nom spécifique, composé de wucaiwan et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Wucaiwan, « la baie au cinq couleurs » en chinois, la partie haute de la formation de Shishugou[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Hualianceratops associe Hualian qui signifie « face ornementée », et ce en référence à la texture que présente le crâne, à ceratops, le suffixe commun aux dinosaures à cornes.
+Son nom spécifique, composé de wucaiwan et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Wucaiwan, « la baie au cinq couleurs » en chinois, la partie haute de la formation de Shishugou.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Fenglu Han, Catherine A Forster, James M Clark et Xing Xu, « A New Taxon of Basal Ceratopsian from China and the Early Evolution of Ceratopsia », PLOS One, PLoS, vol. 10, no 12,‎ 9 décembre 2015, e0143369 (ISSN 1932-6203, OCLC 228234657, PMID 26649770, PMCID 4674058, DOI 10.1371/JOURNAL.PONE.0143369, lire en ligne)</t>
         </is>
